--- a/Files/Respiration Campaing April 2022/EGM_1/27_04_2022/Measurements EGM4 27_04_2022.xlsx
+++ b/Files/Respiration Campaing April 2022/EGM_1/27_04_2022/Measurements EGM4 27_04_2022.xlsx
@@ -523,7 +523,9 @@
       <c r="S2" t="n">
         <v>8</v>
       </c>
-      <c r="T2"/>
+      <c r="T2" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -46091,7 +46093,9 @@
       <c r="S737" t="n">
         <v>8</v>
       </c>
-      <c r="T737"/>
+      <c r="T737" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
@@ -46151,7 +46155,9 @@
       <c r="S738" t="n">
         <v>8</v>
       </c>
-      <c r="T738"/>
+      <c r="T738" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
@@ -46211,7 +46217,9 @@
       <c r="S739" t="n">
         <v>8</v>
       </c>
-      <c r="T739"/>
+      <c r="T739" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -46271,7 +46279,9 @@
       <c r="S740" t="n">
         <v>8</v>
       </c>
-      <c r="T740"/>
+      <c r="T740" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -46331,7 +46341,9 @@
       <c r="S741" t="n">
         <v>8</v>
       </c>
-      <c r="T741"/>
+      <c r="T741" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
@@ -46391,7 +46403,9 @@
       <c r="S742" t="n">
         <v>8</v>
       </c>
-      <c r="T742"/>
+      <c r="T742" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
@@ -46451,7 +46465,9 @@
       <c r="S743" t="n">
         <v>8</v>
       </c>
-      <c r="T743"/>
+      <c r="T743" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
@@ -46511,7 +46527,9 @@
       <c r="S744" t="n">
         <v>8</v>
       </c>
-      <c r="T744"/>
+      <c r="T744" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
@@ -46571,7 +46589,9 @@
       <c r="S745" t="n">
         <v>8</v>
       </c>
-      <c r="T745"/>
+      <c r="T745" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
@@ -46631,7 +46651,9 @@
       <c r="S746" t="n">
         <v>8</v>
       </c>
-      <c r="T746"/>
+      <c r="T746" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
@@ -46691,7 +46713,9 @@
       <c r="S747" t="n">
         <v>8</v>
       </c>
-      <c r="T747"/>
+      <c r="T747" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
@@ -46751,7 +46775,9 @@
       <c r="S748" t="n">
         <v>8</v>
       </c>
-      <c r="T748"/>
+      <c r="T748" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
@@ -46811,7 +46837,9 @@
       <c r="S749" t="n">
         <v>8</v>
       </c>
-      <c r="T749"/>
+      <c r="T749" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -46871,7 +46899,9 @@
       <c r="S750" t="n">
         <v>8</v>
       </c>
-      <c r="T750"/>
+      <c r="T750" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -46931,7 +46961,9 @@
       <c r="S751" t="n">
         <v>8</v>
       </c>
-      <c r="T751"/>
+      <c r="T751" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
@@ -46991,7 +47023,9 @@
       <c r="S752" t="n">
         <v>8</v>
       </c>
-      <c r="T752"/>
+      <c r="T752" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
@@ -47051,7 +47085,9 @@
       <c r="S753" t="n">
         <v>8</v>
       </c>
-      <c r="T753"/>
+      <c r="T753" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
@@ -47111,7 +47147,9 @@
       <c r="S754" t="n">
         <v>8</v>
       </c>
-      <c r="T754"/>
+      <c r="T754" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
@@ -47171,7 +47209,9 @@
       <c r="S755" t="n">
         <v>8</v>
       </c>
-      <c r="T755"/>
+      <c r="T755" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
@@ -47231,7 +47271,9 @@
       <c r="S756" t="n">
         <v>8</v>
       </c>
-      <c r="T756"/>
+      <c r="T756" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
@@ -47291,7 +47333,9 @@
       <c r="S757" t="n">
         <v>8</v>
       </c>
-      <c r="T757"/>
+      <c r="T757" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -47351,7 +47395,9 @@
       <c r="S758" t="n">
         <v>8</v>
       </c>
-      <c r="T758"/>
+      <c r="T758" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
@@ -47411,7 +47457,9 @@
       <c r="S759" t="n">
         <v>8</v>
       </c>
-      <c r="T759"/>
+      <c r="T759" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
@@ -47471,7 +47519,9 @@
       <c r="S760" t="n">
         <v>8</v>
       </c>
-      <c r="T760"/>
+      <c r="T760" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -47531,7 +47581,9 @@
       <c r="S761" t="n">
         <v>8</v>
       </c>
-      <c r="T761"/>
+      <c r="T761" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
@@ -47591,7 +47643,9 @@
       <c r="S762" t="n">
         <v>8</v>
       </c>
-      <c r="T762"/>
+      <c r="T762" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
@@ -47651,7 +47705,9 @@
       <c r="S763" t="n">
         <v>8</v>
       </c>
-      <c r="T763"/>
+      <c r="T763" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
@@ -47711,7 +47767,9 @@
       <c r="S764" t="n">
         <v>8</v>
       </c>
-      <c r="T764"/>
+      <c r="T764" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
@@ -47771,7 +47829,9 @@
       <c r="S765" t="n">
         <v>8</v>
       </c>
-      <c r="T765"/>
+      <c r="T765" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -47831,7 +47891,9 @@
       <c r="S766" t="n">
         <v>8</v>
       </c>
-      <c r="T766"/>
+      <c r="T766" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -47891,7 +47953,9 @@
       <c r="S767" t="n">
         <v>8</v>
       </c>
-      <c r="T767"/>
+      <c r="T767" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
@@ -47951,7 +48015,9 @@
       <c r="S768" t="n">
         <v>8</v>
       </c>
-      <c r="T768"/>
+      <c r="T768" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
@@ -48011,7 +48077,9 @@
       <c r="S769" t="n">
         <v>8</v>
       </c>
-      <c r="T769"/>
+      <c r="T769" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
@@ -48071,7 +48139,9 @@
       <c r="S770" t="n">
         <v>8</v>
       </c>
-      <c r="T770"/>
+      <c r="T770" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -48131,7 +48201,9 @@
       <c r="S771" t="n">
         <v>8</v>
       </c>
-      <c r="T771"/>
+      <c r="T771" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -48191,7 +48263,9 @@
       <c r="S772" t="n">
         <v>8</v>
       </c>
-      <c r="T772"/>
+      <c r="T772" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
@@ -48251,7 +48325,9 @@
       <c r="S773" t="n">
         <v>8</v>
       </c>
-      <c r="T773"/>
+      <c r="T773" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -48311,7 +48387,9 @@
       <c r="S774" t="n">
         <v>8</v>
       </c>
-      <c r="T774"/>
+      <c r="T774" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
@@ -48371,7 +48449,9 @@
       <c r="S775" t="n">
         <v>8</v>
       </c>
-      <c r="T775"/>
+      <c r="T775" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
@@ -48431,7 +48511,9 @@
       <c r="S776" t="n">
         <v>8</v>
       </c>
-      <c r="T776"/>
+      <c r="T776" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
@@ -48491,7 +48573,9 @@
       <c r="S777" t="n">
         <v>8</v>
       </c>
-      <c r="T777"/>
+      <c r="T777" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
@@ -48551,7 +48635,9 @@
       <c r="S778" t="n">
         <v>8</v>
       </c>
-      <c r="T778"/>
+      <c r="T778" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -48611,7 +48697,9 @@
       <c r="S779" t="n">
         <v>8</v>
       </c>
-      <c r="T779"/>
+      <c r="T779" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
@@ -48671,7 +48759,9 @@
       <c r="S780" t="n">
         <v>8</v>
       </c>
-      <c r="T780"/>
+      <c r="T780" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -48731,7 +48821,9 @@
       <c r="S781" t="n">
         <v>8</v>
       </c>
-      <c r="T781"/>
+      <c r="T781" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
@@ -48791,7 +48883,9 @@
       <c r="S782" t="n">
         <v>8</v>
       </c>
-      <c r="T782"/>
+      <c r="T782" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
@@ -48851,7 +48945,9 @@
       <c r="S783" t="n">
         <v>8</v>
       </c>
-      <c r="T783"/>
+      <c r="T783" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -48911,7 +49007,9 @@
       <c r="S784" t="n">
         <v>8</v>
       </c>
-      <c r="T784"/>
+      <c r="T784" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -48971,7 +49069,9 @@
       <c r="S785" t="n">
         <v>8</v>
       </c>
-      <c r="T785"/>
+      <c r="T785" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -49031,7 +49131,9 @@
       <c r="S786" t="n">
         <v>8</v>
       </c>
-      <c r="T786"/>
+      <c r="T786" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
@@ -49091,7 +49193,9 @@
       <c r="S787" t="n">
         <v>8</v>
       </c>
-      <c r="T787"/>
+      <c r="T787" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
@@ -49151,7 +49255,9 @@
       <c r="S788" t="n">
         <v>8</v>
       </c>
-      <c r="T788"/>
+      <c r="T788" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -49211,7 +49317,9 @@
       <c r="S789" t="n">
         <v>8</v>
       </c>
-      <c r="T789"/>
+      <c r="T789" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -49271,7 +49379,9 @@
       <c r="S790" t="n">
         <v>8</v>
       </c>
-      <c r="T790"/>
+      <c r="T790" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
@@ -49331,7 +49441,9 @@
       <c r="S791" t="n">
         <v>8</v>
       </c>
-      <c r="T791"/>
+      <c r="T791" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
@@ -49391,7 +49503,9 @@
       <c r="S792" t="n">
         <v>8</v>
       </c>
-      <c r="T792"/>
+      <c r="T792" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
@@ -49451,7 +49565,9 @@
       <c r="S793" t="n">
         <v>8</v>
       </c>
-      <c r="T793"/>
+      <c r="T793" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
@@ -49511,7 +49627,9 @@
       <c r="S794" t="n">
         <v>8</v>
       </c>
-      <c r="T794"/>
+      <c r="T794" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
@@ -49571,7 +49689,9 @@
       <c r="S795" t="n">
         <v>8</v>
       </c>
-      <c r="T795"/>
+      <c r="T795" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
@@ -49631,7 +49751,9 @@
       <c r="S796" t="n">
         <v>8</v>
       </c>
-      <c r="T796"/>
+      <c r="T796" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
@@ -49691,7 +49813,9 @@
       <c r="S797" t="n">
         <v>8</v>
       </c>
-      <c r="T797"/>
+      <c r="T797" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
@@ -49751,7 +49875,9 @@
       <c r="S798" t="n">
         <v>8</v>
       </c>
-      <c r="T798"/>
+      <c r="T798" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
@@ -49811,7 +49937,9 @@
       <c r="S799" t="n">
         <v>8</v>
       </c>
-      <c r="T799"/>
+      <c r="T799" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
@@ -49871,7 +49999,9 @@
       <c r="S800" t="n">
         <v>8</v>
       </c>
-      <c r="T800"/>
+      <c r="T800" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
@@ -49931,7 +50061,9 @@
       <c r="S801" t="n">
         <v>8</v>
       </c>
-      <c r="T801"/>
+      <c r="T801" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
@@ -49991,7 +50123,9 @@
       <c r="S802" t="n">
         <v>8</v>
       </c>
-      <c r="T802"/>
+      <c r="T802" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
@@ -50051,7 +50185,9 @@
       <c r="S803" t="n">
         <v>8</v>
       </c>
-      <c r="T803"/>
+      <c r="T803" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
@@ -50111,7 +50247,9 @@
       <c r="S804" t="n">
         <v>8</v>
       </c>
-      <c r="T804"/>
+      <c r="T804" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
@@ -50171,7 +50309,9 @@
       <c r="S805" t="n">
         <v>8</v>
       </c>
-      <c r="T805"/>
+      <c r="T805" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
@@ -50231,7 +50371,9 @@
       <c r="S806" t="n">
         <v>8</v>
       </c>
-      <c r="T806"/>
+      <c r="T806" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
@@ -50291,7 +50433,9 @@
       <c r="S807" t="n">
         <v>8</v>
       </c>
-      <c r="T807"/>
+      <c r="T807" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
@@ -50351,7 +50495,9 @@
       <c r="S808" t="n">
         <v>8</v>
       </c>
-      <c r="T808"/>
+      <c r="T808" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
@@ -50411,7 +50557,9 @@
       <c r="S809" t="n">
         <v>8</v>
       </c>
-      <c r="T809"/>
+      <c r="T809" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
@@ -50471,7 +50619,9 @@
       <c r="S810" t="n">
         <v>8</v>
       </c>
-      <c r="T810"/>
+      <c r="T810" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
@@ -50531,7 +50681,9 @@
       <c r="S811" t="n">
         <v>8</v>
       </c>
-      <c r="T811"/>
+      <c r="T811" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
@@ -50591,7 +50743,9 @@
       <c r="S812" t="n">
         <v>8</v>
       </c>
-      <c r="T812"/>
+      <c r="T812" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
@@ -50651,7 +50805,9 @@
       <c r="S813" t="n">
         <v>8</v>
       </c>
-      <c r="T813"/>
+      <c r="T813" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
@@ -50711,7 +50867,9 @@
       <c r="S814" t="n">
         <v>8</v>
       </c>
-      <c r="T814"/>
+      <c r="T814" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -50771,7 +50929,9 @@
       <c r="S815" t="n">
         <v>8</v>
       </c>
-      <c r="T815"/>
+      <c r="T815" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -50831,7 +50991,9 @@
       <c r="S816" t="n">
         <v>8</v>
       </c>
-      <c r="T816"/>
+      <c r="T816" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
@@ -50891,7 +51053,9 @@
       <c r="S817" t="n">
         <v>8</v>
       </c>
-      <c r="T817"/>
+      <c r="T817" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
@@ -50951,7 +51115,9 @@
       <c r="S818" t="n">
         <v>8</v>
       </c>
-      <c r="T818"/>
+      <c r="T818" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
@@ -51011,7 +51177,9 @@
       <c r="S819" t="n">
         <v>8</v>
       </c>
-      <c r="T819"/>
+      <c r="T819" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
@@ -51071,7 +51239,9 @@
       <c r="S820" t="n">
         <v>8</v>
       </c>
-      <c r="T820"/>
+      <c r="T820" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
@@ -51131,7 +51301,9 @@
       <c r="S821" t="n">
         <v>8</v>
       </c>
-      <c r="T821"/>
+      <c r="T821" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
@@ -51191,7 +51363,9 @@
       <c r="S822" t="n">
         <v>8</v>
       </c>
-      <c r="T822"/>
+      <c r="T822" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
@@ -51251,7 +51425,9 @@
       <c r="S823" t="n">
         <v>8</v>
       </c>
-      <c r="T823"/>
+      <c r="T823" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
@@ -51311,7 +51487,9 @@
       <c r="S824" t="n">
         <v>8</v>
       </c>
-      <c r="T824"/>
+      <c r="T824" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
@@ -51371,7 +51549,9 @@
       <c r="S825" t="n">
         <v>8</v>
       </c>
-      <c r="T825"/>
+      <c r="T825" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
@@ -51431,7 +51611,9 @@
       <c r="S826" t="n">
         <v>8</v>
       </c>
-      <c r="T826"/>
+      <c r="T826" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
@@ -51491,7 +51673,9 @@
       <c r="S827" t="n">
         <v>8</v>
       </c>
-      <c r="T827"/>
+      <c r="T827" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -51551,7 +51735,9 @@
       <c r="S828" t="n">
         <v>8</v>
       </c>
-      <c r="T828"/>
+      <c r="T828" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
@@ -51611,7 +51797,9 @@
       <c r="S829" t="n">
         <v>8</v>
       </c>
-      <c r="T829"/>
+      <c r="T829" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
@@ -51671,7 +51859,9 @@
       <c r="S830" t="n">
         <v>8</v>
       </c>
-      <c r="T830"/>
+      <c r="T830" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
@@ -51731,7 +51921,9 @@
       <c r="S831" t="n">
         <v>8</v>
       </c>
-      <c r="T831"/>
+      <c r="T831" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
@@ -51791,7 +51983,9 @@
       <c r="S832" t="n">
         <v>8</v>
       </c>
-      <c r="T832"/>
+      <c r="T832" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
@@ -51851,7 +52045,9 @@
       <c r="S833" t="n">
         <v>8</v>
       </c>
-      <c r="T833"/>
+      <c r="T833" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
@@ -51911,7 +52107,9 @@
       <c r="S834" t="n">
         <v>8</v>
       </c>
-      <c r="T834"/>
+      <c r="T834" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -51971,7 +52169,9 @@
       <c r="S835" t="n">
         <v>8</v>
       </c>
-      <c r="T835"/>
+      <c r="T835" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
@@ -52031,7 +52231,9 @@
       <c r="S836" t="n">
         <v>8</v>
       </c>
-      <c r="T836"/>
+      <c r="T836" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
@@ -52091,7 +52293,9 @@
       <c r="S837" t="n">
         <v>8</v>
       </c>
-      <c r="T837"/>
+      <c r="T837" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
@@ -52151,7 +52355,9 @@
       <c r="S838" t="n">
         <v>8</v>
       </c>
-      <c r="T838"/>
+      <c r="T838" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
@@ -52211,7 +52417,9 @@
       <c r="S839" t="n">
         <v>8</v>
       </c>
-      <c r="T839"/>
+      <c r="T839" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
@@ -52271,7 +52479,9 @@
       <c r="S840" t="n">
         <v>8</v>
       </c>
-      <c r="T840"/>
+      <c r="T840" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
@@ -52331,7 +52541,9 @@
       <c r="S841" t="n">
         <v>8</v>
       </c>
-      <c r="T841"/>
+      <c r="T841" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
@@ -52391,7 +52603,9 @@
       <c r="S842" t="n">
         <v>8</v>
       </c>
-      <c r="T842"/>
+      <c r="T842" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
@@ -52451,7 +52665,9 @@
       <c r="S843" t="n">
         <v>8</v>
       </c>
-      <c r="T843"/>
+      <c r="T843" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
@@ -52511,7 +52727,9 @@
       <c r="S844" t="n">
         <v>8</v>
       </c>
-      <c r="T844"/>
+      <c r="T844" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
@@ -52571,7 +52789,9 @@
       <c r="S845" t="n">
         <v>8</v>
       </c>
-      <c r="T845"/>
+      <c r="T845" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
@@ -52631,7 +52851,9 @@
       <c r="S846" t="n">
         <v>8</v>
       </c>
-      <c r="T846"/>
+      <c r="T846" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
@@ -52691,7 +52913,9 @@
       <c r="S847" t="n">
         <v>8</v>
       </c>
-      <c r="T847"/>
+      <c r="T847" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
@@ -52751,7 +52975,9 @@
       <c r="S848" t="n">
         <v>8</v>
       </c>
-      <c r="T848"/>
+      <c r="T848" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
@@ -52811,7 +53037,9 @@
       <c r="S849" t="n">
         <v>8</v>
       </c>
-      <c r="T849"/>
+      <c r="T849" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
@@ -52871,7 +53099,9 @@
       <c r="S850" t="n">
         <v>8</v>
       </c>
-      <c r="T850"/>
+      <c r="T850" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
@@ -52931,7 +53161,9 @@
       <c r="S851" t="n">
         <v>8</v>
       </c>
-      <c r="T851"/>
+      <c r="T851" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
@@ -52991,7 +53223,9 @@
       <c r="S852" t="n">
         <v>8</v>
       </c>
-      <c r="T852"/>
+      <c r="T852" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
@@ -53051,7 +53285,9 @@
       <c r="S853" t="n">
         <v>8</v>
       </c>
-      <c r="T853"/>
+      <c r="T853" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
@@ -53111,7 +53347,9 @@
       <c r="S854" t="n">
         <v>8</v>
       </c>
-      <c r="T854"/>
+      <c r="T854" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -53171,7 +53409,9 @@
       <c r="S855" t="n">
         <v>8</v>
       </c>
-      <c r="T855"/>
+      <c r="T855" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
@@ -53231,7 +53471,9 @@
       <c r="S856" t="n">
         <v>8</v>
       </c>
-      <c r="T856"/>
+      <c r="T856" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
@@ -53291,7 +53533,9 @@
       <c r="S857" t="n">
         <v>8</v>
       </c>
-      <c r="T857"/>
+      <c r="T857" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
@@ -53351,7 +53595,9 @@
       <c r="S858" t="n">
         <v>8</v>
       </c>
-      <c r="T858"/>
+      <c r="T858" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
@@ -53411,7 +53657,9 @@
       <c r="S859" t="n">
         <v>8</v>
       </c>
-      <c r="T859"/>
+      <c r="T859" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
@@ -53471,7 +53719,9 @@
       <c r="S860" t="n">
         <v>8</v>
       </c>
-      <c r="T860"/>
+      <c r="T860" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
@@ -53531,7 +53781,9 @@
       <c r="S861" t="n">
         <v>8</v>
       </c>
-      <c r="T861"/>
+      <c r="T861" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
@@ -53591,7 +53843,9 @@
       <c r="S862" t="n">
         <v>8</v>
       </c>
-      <c r="T862"/>
+      <c r="T862" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
@@ -53651,7 +53905,9 @@
       <c r="S863" t="n">
         <v>8</v>
       </c>
-      <c r="T863"/>
+      <c r="T863" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
@@ -53711,7 +53967,9 @@
       <c r="S864" t="n">
         <v>8</v>
       </c>
-      <c r="T864"/>
+      <c r="T864" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
@@ -53771,7 +54029,9 @@
       <c r="S865" t="n">
         <v>8</v>
       </c>
-      <c r="T865"/>
+      <c r="T865" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
@@ -53831,7 +54091,9 @@
       <c r="S866" t="n">
         <v>8</v>
       </c>
-      <c r="T866"/>
+      <c r="T866" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
@@ -53891,7 +54153,9 @@
       <c r="S867" t="n">
         <v>8</v>
       </c>
-      <c r="T867"/>
+      <c r="T867" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
@@ -53951,7 +54215,9 @@
       <c r="S868" t="n">
         <v>8</v>
       </c>
-      <c r="T868"/>
+      <c r="T868" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
@@ -54011,7 +54277,9 @@
       <c r="S869" t="n">
         <v>8</v>
       </c>
-      <c r="T869"/>
+      <c r="T869" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
@@ -54071,7 +54339,9 @@
       <c r="S870" t="n">
         <v>8</v>
       </c>
-      <c r="T870"/>
+      <c r="T870" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -54131,7 +54401,9 @@
       <c r="S871" t="n">
         <v>8</v>
       </c>
-      <c r="T871"/>
+      <c r="T871" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
@@ -54191,7 +54463,9 @@
       <c r="S872" t="n">
         <v>8</v>
       </c>
-      <c r="T872"/>
+      <c r="T872" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
@@ -54251,7 +54525,9 @@
       <c r="S873" t="n">
         <v>8</v>
       </c>
-      <c r="T873"/>
+      <c r="T873" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
@@ -54311,7 +54587,9 @@
       <c r="S874" t="n">
         <v>8</v>
       </c>
-      <c r="T874"/>
+      <c r="T874" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
@@ -54371,7 +54649,9 @@
       <c r="S875" t="n">
         <v>8</v>
       </c>
-      <c r="T875"/>
+      <c r="T875" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -54431,7 +54711,9 @@
       <c r="S876" t="n">
         <v>8</v>
       </c>
-      <c r="T876"/>
+      <c r="T876" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
@@ -54491,7 +54773,9 @@
       <c r="S877" t="n">
         <v>8</v>
       </c>
-      <c r="T877"/>
+      <c r="T877" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
@@ -54551,7 +54835,9 @@
       <c r="S878" t="n">
         <v>8</v>
       </c>
-      <c r="T878"/>
+      <c r="T878" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -54611,7 +54897,9 @@
       <c r="S879" t="n">
         <v>8</v>
       </c>
-      <c r="T879"/>
+      <c r="T879" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
@@ -54671,7 +54959,9 @@
       <c r="S880" t="n">
         <v>8</v>
       </c>
-      <c r="T880"/>
+      <c r="T880" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
@@ -54731,7 +55021,9 @@
       <c r="S881" t="n">
         <v>8</v>
       </c>
-      <c r="T881"/>
+      <c r="T881" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
@@ -54791,7 +55083,9 @@
       <c r="S882" t="n">
         <v>8</v>
       </c>
-      <c r="T882"/>
+      <c r="T882" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
@@ -54851,7 +55145,9 @@
       <c r="S883" t="n">
         <v>8</v>
       </c>
-      <c r="T883"/>
+      <c r="T883" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
@@ -54911,7 +55207,9 @@
       <c r="S884" t="n">
         <v>8</v>
       </c>
-      <c r="T884"/>
+      <c r="T884" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
@@ -54971,7 +55269,9 @@
       <c r="S885" t="n">
         <v>8</v>
       </c>
-      <c r="T885"/>
+      <c r="T885" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
@@ -55031,7 +55331,9 @@
       <c r="S886" t="n">
         <v>8</v>
       </c>
-      <c r="T886"/>
+      <c r="T886" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
@@ -55091,7 +55393,9 @@
       <c r="S887" t="n">
         <v>8</v>
       </c>
-      <c r="T887"/>
+      <c r="T887" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
@@ -55151,7 +55455,9 @@
       <c r="S888" t="n">
         <v>8</v>
       </c>
-      <c r="T888"/>
+      <c r="T888" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -55211,7 +55517,9 @@
       <c r="S889" t="n">
         <v>8</v>
       </c>
-      <c r="T889"/>
+      <c r="T889" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
@@ -55271,7 +55579,9 @@
       <c r="S890" t="n">
         <v>8</v>
       </c>
-      <c r="T890"/>
+      <c r="T890" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
@@ -55331,7 +55641,9 @@
       <c r="S891" t="n">
         <v>8</v>
       </c>
-      <c r="T891"/>
+      <c r="T891" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
@@ -55391,7 +55703,9 @@
       <c r="S892" t="n">
         <v>8</v>
       </c>
-      <c r="T892"/>
+      <c r="T892" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
@@ -55451,7 +55765,9 @@
       <c r="S893" t="n">
         <v>8</v>
       </c>
-      <c r="T893"/>
+      <c r="T893" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
@@ -55511,7 +55827,9 @@
       <c r="S894" t="n">
         <v>8</v>
       </c>
-      <c r="T894"/>
+      <c r="T894" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
@@ -55571,7 +55889,9 @@
       <c r="S895" t="n">
         <v>8</v>
       </c>
-      <c r="T895"/>
+      <c r="T895" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
@@ -55631,7 +55951,9 @@
       <c r="S896" t="n">
         <v>8</v>
       </c>
-      <c r="T896"/>
+      <c r="T896" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
@@ -55691,7 +56013,9 @@
       <c r="S897" t="n">
         <v>8</v>
       </c>
-      <c r="T897"/>
+      <c r="T897" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
@@ -55751,7 +56075,9 @@
       <c r="S898" t="n">
         <v>8</v>
       </c>
-      <c r="T898"/>
+      <c r="T898" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
@@ -55811,7 +56137,9 @@
       <c r="S899" t="n">
         <v>8</v>
       </c>
-      <c r="T899"/>
+      <c r="T899" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
@@ -55871,7 +56199,9 @@
       <c r="S900" t="n">
         <v>8</v>
       </c>
-      <c r="T900"/>
+      <c r="T900" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
@@ -55931,7 +56261,9 @@
       <c r="S901" t="n">
         <v>8</v>
       </c>
-      <c r="T901"/>
+      <c r="T901" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
@@ -55991,7 +56323,9 @@
       <c r="S902" t="n">
         <v>8</v>
       </c>
-      <c r="T902"/>
+      <c r="T902" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
@@ -56051,7 +56385,9 @@
       <c r="S903" t="n">
         <v>8</v>
       </c>
-      <c r="T903"/>
+      <c r="T903" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
@@ -56111,7 +56447,9 @@
       <c r="S904" t="n">
         <v>8</v>
       </c>
-      <c r="T904"/>
+      <c r="T904" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
@@ -56171,7 +56509,9 @@
       <c r="S905" t="n">
         <v>8</v>
       </c>
-      <c r="T905"/>
+      <c r="T905" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
@@ -56231,7 +56571,9 @@
       <c r="S906" t="n">
         <v>8</v>
       </c>
-      <c r="T906"/>
+      <c r="T906" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
@@ -56291,7 +56633,9 @@
       <c r="S907" t="n">
         <v>8</v>
       </c>
-      <c r="T907"/>
+      <c r="T907" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
@@ -56351,7 +56695,9 @@
       <c r="S908" t="n">
         <v>8</v>
       </c>
-      <c r="T908"/>
+      <c r="T908" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
@@ -56411,7 +56757,9 @@
       <c r="S909" t="n">
         <v>8</v>
       </c>
-      <c r="T909"/>
+      <c r="T909" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
@@ -56471,7 +56819,9 @@
       <c r="S910" t="n">
         <v>8</v>
       </c>
-      <c r="T910"/>
+      <c r="T910" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
@@ -56531,7 +56881,9 @@
       <c r="S911" t="n">
         <v>8</v>
       </c>
-      <c r="T911"/>
+      <c r="T911" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
@@ -56591,7 +56943,9 @@
       <c r="S912" t="n">
         <v>8</v>
       </c>
-      <c r="T912"/>
+      <c r="T912" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
@@ -56651,7 +57005,9 @@
       <c r="S913" t="n">
         <v>8</v>
       </c>
-      <c r="T913"/>
+      <c r="T913" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
@@ -56711,7 +57067,9 @@
       <c r="S914" t="n">
         <v>8</v>
       </c>
-      <c r="T914"/>
+      <c r="T914" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
@@ -56771,7 +57129,9 @@
       <c r="S915" t="n">
         <v>8</v>
       </c>
-      <c r="T915"/>
+      <c r="T915" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
@@ -56831,7 +57191,9 @@
       <c r="S916" t="n">
         <v>8</v>
       </c>
-      <c r="T916"/>
+      <c r="T916" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
@@ -56891,7 +57253,9 @@
       <c r="S917" t="n">
         <v>8</v>
       </c>
-      <c r="T917"/>
+      <c r="T917" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
@@ -56951,7 +57315,9 @@
       <c r="S918" t="n">
         <v>8</v>
       </c>
-      <c r="T918"/>
+      <c r="T918" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
@@ -57011,7 +57377,9 @@
       <c r="S919" t="n">
         <v>8</v>
       </c>
-      <c r="T919"/>
+      <c r="T919" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
@@ -57071,7 +57439,9 @@
       <c r="S920" t="n">
         <v>8</v>
       </c>
-      <c r="T920"/>
+      <c r="T920" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
@@ -57131,7 +57501,9 @@
       <c r="S921" t="n">
         <v>8</v>
       </c>
-      <c r="T921"/>
+      <c r="T921" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
@@ -57191,7 +57563,9 @@
       <c r="S922" t="n">
         <v>8</v>
       </c>
-      <c r="T922"/>
+      <c r="T922" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
@@ -57251,7 +57625,9 @@
       <c r="S923" t="n">
         <v>8</v>
       </c>
-      <c r="T923"/>
+      <c r="T923" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
@@ -57311,7 +57687,9 @@
       <c r="S924" t="n">
         <v>8</v>
       </c>
-      <c r="T924"/>
+      <c r="T924" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
@@ -57371,7 +57749,9 @@
       <c r="S925" t="n">
         <v>8</v>
       </c>
-      <c r="T925"/>
+      <c r="T925" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
@@ -57431,7 +57811,9 @@
       <c r="S926" t="n">
         <v>8</v>
       </c>
-      <c r="T926"/>
+      <c r="T926" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
@@ -57491,7 +57873,9 @@
       <c r="S927" t="n">
         <v>8</v>
       </c>
-      <c r="T927"/>
+      <c r="T927" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
@@ -57551,7 +57935,9 @@
       <c r="S928" t="n">
         <v>8</v>
       </c>
-      <c r="T928"/>
+      <c r="T928" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
@@ -57611,7 +57997,9 @@
       <c r="S929" t="n">
         <v>8</v>
       </c>
-      <c r="T929"/>
+      <c r="T929" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
@@ -57671,7 +58059,9 @@
       <c r="S930" t="n">
         <v>8</v>
       </c>
-      <c r="T930"/>
+      <c r="T930" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
@@ -57731,7 +58121,9 @@
       <c r="S931" t="n">
         <v>8</v>
       </c>
-      <c r="T931"/>
+      <c r="T931" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
@@ -57791,7 +58183,9 @@
       <c r="S932" t="n">
         <v>8</v>
       </c>
-      <c r="T932"/>
+      <c r="T932" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
@@ -57851,7 +58245,9 @@
       <c r="S933" t="n">
         <v>8</v>
       </c>
-      <c r="T933"/>
+      <c r="T933" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
@@ -57911,7 +58307,9 @@
       <c r="S934" t="n">
         <v>8</v>
       </c>
-      <c r="T934"/>
+      <c r="T934" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
@@ -57971,7 +58369,9 @@
       <c r="S935" t="n">
         <v>8</v>
       </c>
-      <c r="T935"/>
+      <c r="T935" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
@@ -58031,7 +58431,9 @@
       <c r="S936" t="n">
         <v>8</v>
       </c>
-      <c r="T936"/>
+      <c r="T936" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
@@ -58091,7 +58493,9 @@
       <c r="S937" t="n">
         <v>8</v>
       </c>
-      <c r="T937"/>
+      <c r="T937" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
@@ -58151,7 +58555,9 @@
       <c r="S938" t="n">
         <v>8</v>
       </c>
-      <c r="T938"/>
+      <c r="T938" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
@@ -58211,7 +58617,9 @@
       <c r="S939" t="n">
         <v>8</v>
       </c>
-      <c r="T939"/>
+      <c r="T939" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
@@ -58271,7 +58679,9 @@
       <c r="S940" t="n">
         <v>8</v>
       </c>
-      <c r="T940"/>
+      <c r="T940" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
@@ -58331,7 +58741,9 @@
       <c r="S941" t="n">
         <v>8</v>
       </c>
-      <c r="T941"/>
+      <c r="T941" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
@@ -58391,7 +58803,9 @@
       <c r="S942" t="n">
         <v>8</v>
       </c>
-      <c r="T942"/>
+      <c r="T942" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
@@ -58451,7 +58865,9 @@
       <c r="S943" t="n">
         <v>8</v>
       </c>
-      <c r="T943"/>
+      <c r="T943" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
@@ -58511,7 +58927,9 @@
       <c r="S944" t="n">
         <v>8</v>
       </c>
-      <c r="T944"/>
+      <c r="T944" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
@@ -58571,7 +58989,9 @@
       <c r="S945" t="n">
         <v>8</v>
       </c>
-      <c r="T945"/>
+      <c r="T945" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
@@ -58631,7 +59051,9 @@
       <c r="S946" t="n">
         <v>8</v>
       </c>
-      <c r="T946"/>
+      <c r="T946" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
@@ -58691,7 +59113,9 @@
       <c r="S947" t="n">
         <v>8</v>
       </c>
-      <c r="T947"/>
+      <c r="T947" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
@@ -58751,7 +59175,9 @@
       <c r="S948" t="n">
         <v>8</v>
       </c>
-      <c r="T948"/>
+      <c r="T948" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
@@ -58811,7 +59237,9 @@
       <c r="S949" t="n">
         <v>8</v>
       </c>
-      <c r="T949"/>
+      <c r="T949" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
@@ -58871,7 +59299,9 @@
       <c r="S950" t="n">
         <v>8</v>
       </c>
-      <c r="T950"/>
+      <c r="T950" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
@@ -58931,7 +59361,9 @@
       <c r="S951" t="n">
         <v>8</v>
       </c>
-      <c r="T951"/>
+      <c r="T951" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
@@ -58991,7 +59423,9 @@
       <c r="S952" t="n">
         <v>8</v>
       </c>
-      <c r="T952"/>
+      <c r="T952" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
@@ -59051,7 +59485,9 @@
       <c r="S953" t="n">
         <v>8</v>
       </c>
-      <c r="T953"/>
+      <c r="T953" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
@@ -59111,7 +59547,9 @@
       <c r="S954" t="n">
         <v>8</v>
       </c>
-      <c r="T954"/>
+      <c r="T954" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
@@ -59171,7 +59609,9 @@
       <c r="S955" t="n">
         <v>8</v>
       </c>
-      <c r="T955"/>
+      <c r="T955" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
@@ -59231,7 +59671,9 @@
       <c r="S956" t="n">
         <v>8</v>
       </c>
-      <c r="T956"/>
+      <c r="T956" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
@@ -59291,7 +59733,9 @@
       <c r="S957" t="n">
         <v>8</v>
       </c>
-      <c r="T957"/>
+      <c r="T957" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -59351,7 +59795,9 @@
       <c r="S958" t="n">
         <v>8</v>
       </c>
-      <c r="T958"/>
+      <c r="T958" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
@@ -59411,7 +59857,9 @@
       <c r="S959" t="n">
         <v>8</v>
       </c>
-      <c r="T959"/>
+      <c r="T959" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
@@ -59471,7 +59919,9 @@
       <c r="S960" t="n">
         <v>8</v>
       </c>
-      <c r="T960"/>
+      <c r="T960" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
@@ -59531,7 +59981,9 @@
       <c r="S961" t="n">
         <v>8</v>
       </c>
-      <c r="T961"/>
+      <c r="T961" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
@@ -59591,7 +60043,9 @@
       <c r="S962" t="n">
         <v>8</v>
       </c>
-      <c r="T962"/>
+      <c r="T962" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
@@ -59651,7 +60105,9 @@
       <c r="S963" t="n">
         <v>8</v>
       </c>
-      <c r="T963"/>
+      <c r="T963" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
@@ -59711,7 +60167,9 @@
       <c r="S964" t="n">
         <v>8</v>
       </c>
-      <c r="T964"/>
+      <c r="T964" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
@@ -59771,7 +60229,9 @@
       <c r="S965" t="n">
         <v>8</v>
       </c>
-      <c r="T965"/>
+      <c r="T965" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
@@ -59831,7 +60291,9 @@
       <c r="S966" t="n">
         <v>8</v>
       </c>
-      <c r="T966"/>
+      <c r="T966" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
@@ -59891,7 +60353,9 @@
       <c r="S967" t="n">
         <v>8</v>
       </c>
-      <c r="T967"/>
+      <c r="T967" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
@@ -59951,7 +60415,9 @@
       <c r="S968" t="n">
         <v>8</v>
       </c>
-      <c r="T968"/>
+      <c r="T968" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
@@ -60011,7 +60477,9 @@
       <c r="S969" t="n">
         <v>8</v>
       </c>
-      <c r="T969"/>
+      <c r="T969" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
@@ -60071,7 +60539,9 @@
       <c r="S970" t="n">
         <v>8</v>
       </c>
-      <c r="T970"/>
+      <c r="T970" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
@@ -60131,7 +60601,9 @@
       <c r="S971" t="n">
         <v>8</v>
       </c>
-      <c r="T971"/>
+      <c r="T971" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
@@ -60191,7 +60663,9 @@
       <c r="S972" t="n">
         <v>8</v>
       </c>
-      <c r="T972"/>
+      <c r="T972" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
@@ -60251,7 +60725,9 @@
       <c r="S973" t="n">
         <v>8</v>
       </c>
-      <c r="T973"/>
+      <c r="T973" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
@@ -60311,7 +60787,9 @@
       <c r="S974" t="n">
         <v>8</v>
       </c>
-      <c r="T974"/>
+      <c r="T974" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
@@ -60371,7 +60849,9 @@
       <c r="S975" t="n">
         <v>8</v>
       </c>
-      <c r="T975"/>
+      <c r="T975" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
@@ -60431,7 +60911,9 @@
       <c r="S976" t="n">
         <v>8</v>
       </c>
-      <c r="T976"/>
+      <c r="T976" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
@@ -60491,7 +60973,9 @@
       <c r="S977" t="n">
         <v>8</v>
       </c>
-      <c r="T977"/>
+      <c r="T977" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
@@ -60551,7 +61035,9 @@
       <c r="S978" t="n">
         <v>8</v>
       </c>
-      <c r="T978"/>
+      <c r="T978" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
@@ -60611,7 +61097,9 @@
       <c r="S979" t="n">
         <v>8</v>
       </c>
-      <c r="T979"/>
+      <c r="T979" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
@@ -60671,7 +61159,9 @@
       <c r="S980" t="n">
         <v>8</v>
       </c>
-      <c r="T980"/>
+      <c r="T980" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
@@ -60731,7 +61221,9 @@
       <c r="S981" t="n">
         <v>8</v>
       </c>
-      <c r="T981"/>
+      <c r="T981" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -60791,7 +61283,9 @@
       <c r="S982" t="n">
         <v>8</v>
       </c>
-      <c r="T982"/>
+      <c r="T982" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
@@ -60851,7 +61345,9 @@
       <c r="S983" t="n">
         <v>8</v>
       </c>
-      <c r="T983"/>
+      <c r="T983" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
@@ -60911,7 +61407,9 @@
       <c r="S984" t="n">
         <v>8</v>
       </c>
-      <c r="T984"/>
+      <c r="T984" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
@@ -60971,7 +61469,9 @@
       <c r="S985" t="n">
         <v>8</v>
       </c>
-      <c r="T985"/>
+      <c r="T985" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
@@ -61031,7 +61531,9 @@
       <c r="S986" t="n">
         <v>8</v>
       </c>
-      <c r="T986"/>
+      <c r="T986" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -61091,7 +61593,9 @@
       <c r="S987" t="n">
         <v>8</v>
       </c>
-      <c r="T987"/>
+      <c r="T987" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
@@ -61151,7 +61655,9 @@
       <c r="S988" t="n">
         <v>8</v>
       </c>
-      <c r="T988"/>
+      <c r="T988" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
@@ -61211,7 +61717,9 @@
       <c r="S989" t="n">
         <v>8</v>
       </c>
-      <c r="T989"/>
+      <c r="T989" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
@@ -61271,7 +61779,9 @@
       <c r="S990" t="n">
         <v>8</v>
       </c>
-      <c r="T990"/>
+      <c r="T990" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
@@ -61331,7 +61841,9 @@
       <c r="S991" t="n">
         <v>8</v>
       </c>
-      <c r="T991"/>
+      <c r="T991" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
@@ -61391,7 +61903,9 @@
       <c r="S992" t="n">
         <v>8</v>
       </c>
-      <c r="T992"/>
+      <c r="T992" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
@@ -61451,7 +61965,9 @@
       <c r="S993" t="n">
         <v>8</v>
       </c>
-      <c r="T993"/>
+      <c r="T993" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
@@ -61511,7 +62027,9 @@
       <c r="S994" t="n">
         <v>8</v>
       </c>
-      <c r="T994"/>
+      <c r="T994" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
@@ -61571,7 +62089,9 @@
       <c r="S995" t="n">
         <v>8</v>
       </c>
-      <c r="T995"/>
+      <c r="T995" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
@@ -61631,7 +62151,9 @@
       <c r="S996" t="n">
         <v>8</v>
       </c>
-      <c r="T996"/>
+      <c r="T996" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
@@ -61691,7 +62213,9 @@
       <c r="S997" t="n">
         <v>8</v>
       </c>
-      <c r="T997"/>
+      <c r="T997" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
@@ -61751,7 +62275,9 @@
       <c r="S998" t="n">
         <v>8</v>
       </c>
-      <c r="T998"/>
+      <c r="T998" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
@@ -61811,7 +62337,9 @@
       <c r="S999" t="n">
         <v>8</v>
       </c>
-      <c r="T999"/>
+      <c r="T999" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
@@ -61871,7 +62399,9 @@
       <c r="S1000" t="n">
         <v>8</v>
       </c>
-      <c r="T1000"/>
+      <c r="T1000" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
@@ -61931,7 +62461,9 @@
       <c r="S1001" t="n">
         <v>8</v>
       </c>
-      <c r="T1001"/>
+      <c r="T1001" t="n">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
